--- a/Data/EC/NIT-9006860521.xlsx
+++ b/Data/EC/NIT-9006860521.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E256C4A-149B-4593-993F-82D43E13652F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{214F5D1E-621D-463E-BE38-6555A86527F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00D1C05B-8241-4A0D-B554-A13F84835B68}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5F77959E-2F13-4612-8CAB-79BF92ABF415}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,64 +71,64 @@
     <t>JULIO CESAR VASQUEZ CONTRERAS</t>
   </si>
   <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
     <t>1805</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -542,7 +542,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F810CF4-54AF-6CA6-7989-B5B3C2B48E74}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BC3FEB6-91E0-1873-CAC1-E812BF6A79B5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -893,7 +893,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E1868C2-116D-4403-9EA1-CD1D36E3D78A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B86C72D-498D-4402-811B-7DC4CD3B7A2F}">
   <dimension ref="B2:J41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1071,10 +1071,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>31249</v>
+        <v>32771</v>
       </c>
       <c r="G16" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1094,10 +1094,10 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>31249</v>
+        <v>35112</v>
       </c>
       <c r="G17" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1117,10 +1117,10 @@
         <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>31249</v>
+        <v>35112</v>
       </c>
       <c r="G18" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1140,10 +1140,10 @@
         <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>31249</v>
+        <v>35112</v>
       </c>
       <c r="G19" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1163,10 +1163,10 @@
         <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>31249</v>
+        <v>35112</v>
       </c>
       <c r="G20" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1186,10 +1186,10 @@
         <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>31249</v>
+        <v>35112</v>
       </c>
       <c r="G21" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1209,10 +1209,10 @@
         <v>17</v>
       </c>
       <c r="F22" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G22" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1232,10 +1232,10 @@
         <v>18</v>
       </c>
       <c r="F23" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G23" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1255,10 +1255,10 @@
         <v>19</v>
       </c>
       <c r="F24" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G24" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1281,7 +1281,7 @@
         <v>33125</v>
       </c>
       <c r="G25" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1304,7 +1304,7 @@
         <v>33125</v>
       </c>
       <c r="G26" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1324,10 +1324,10 @@
         <v>22</v>
       </c>
       <c r="F27" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G27" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1347,10 +1347,10 @@
         <v>23</v>
       </c>
       <c r="F28" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G28" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1370,10 +1370,10 @@
         <v>24</v>
       </c>
       <c r="F29" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G29" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1393,10 +1393,10 @@
         <v>25</v>
       </c>
       <c r="F30" s="18">
-        <v>35112</v>
+        <v>31249</v>
       </c>
       <c r="G30" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1416,10 +1416,10 @@
         <v>26</v>
       </c>
       <c r="F31" s="18">
-        <v>35112</v>
+        <v>31249</v>
       </c>
       <c r="G31" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1439,10 +1439,10 @@
         <v>27</v>
       </c>
       <c r="F32" s="18">
-        <v>35112</v>
+        <v>31249</v>
       </c>
       <c r="G32" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1462,10 +1462,10 @@
         <v>28</v>
       </c>
       <c r="F33" s="18">
-        <v>35112</v>
+        <v>31249</v>
       </c>
       <c r="G33" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1485,10 +1485,10 @@
         <v>29</v>
       </c>
       <c r="F34" s="18">
-        <v>35112</v>
+        <v>31249</v>
       </c>
       <c r="G34" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1508,10 +1508,10 @@
         <v>30</v>
       </c>
       <c r="F35" s="24">
-        <v>32771</v>
+        <v>31249</v>
       </c>
       <c r="G35" s="24">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H35" s="25"/>
       <c r="I35" s="25"/>

--- a/Data/EC/NIT-9006860521.xlsx
+++ b/Data/EC/NIT-9006860521.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{214F5D1E-621D-463E-BE38-6555A86527F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{54B03A3F-D586-4934-A930-C0AF6E9D364D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5F77959E-2F13-4612-8CAB-79BF92ABF415}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5F896A5B-054A-4533-BF98-E457DF40C743}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,64 +71,64 @@
     <t>JULIO CESAR VASQUEZ CONTRERAS</t>
   </si>
   <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
     <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1805</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -227,7 +227,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -240,9 +242,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -442,23 +442,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -486,10 +486,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -542,7 +542,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BC3FEB6-91E0-1873-CAC1-E812BF6A79B5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C874BF2-B0D6-187A-29A0-D01F4BFB8E04}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -893,7 +893,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B86C72D-498D-4402-811B-7DC4CD3B7A2F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A077C36F-F473-477D-8E89-4AF4EE0FB360}">
   <dimension ref="B2:J41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1071,7 +1071,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>32771</v>
+        <v>31249</v>
       </c>
       <c r="G16" s="18">
         <v>877803</v>
@@ -1094,7 +1094,7 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>35112</v>
+        <v>31249</v>
       </c>
       <c r="G17" s="18">
         <v>877803</v>
@@ -1117,7 +1117,7 @@
         <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>35112</v>
+        <v>31249</v>
       </c>
       <c r="G18" s="18">
         <v>877803</v>
@@ -1140,7 +1140,7 @@
         <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>35112</v>
+        <v>31249</v>
       </c>
       <c r="G19" s="18">
         <v>877803</v>
@@ -1163,7 +1163,7 @@
         <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>35112</v>
+        <v>31249</v>
       </c>
       <c r="G20" s="18">
         <v>877803</v>
@@ -1186,7 +1186,7 @@
         <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>35112</v>
+        <v>31249</v>
       </c>
       <c r="G21" s="18">
         <v>877803</v>
@@ -1209,7 +1209,7 @@
         <v>17</v>
       </c>
       <c r="F22" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G22" s="18">
         <v>877803</v>
@@ -1232,7 +1232,7 @@
         <v>18</v>
       </c>
       <c r="F23" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G23" s="18">
         <v>877803</v>
@@ -1255,7 +1255,7 @@
         <v>19</v>
       </c>
       <c r="F24" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G24" s="18">
         <v>877803</v>
@@ -1324,7 +1324,7 @@
         <v>22</v>
       </c>
       <c r="F27" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G27" s="18">
         <v>877803</v>
@@ -1347,7 +1347,7 @@
         <v>23</v>
       </c>
       <c r="F28" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G28" s="18">
         <v>877803</v>
@@ -1370,7 +1370,7 @@
         <v>24</v>
       </c>
       <c r="F29" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G29" s="18">
         <v>877803</v>
@@ -1393,7 +1393,7 @@
         <v>25</v>
       </c>
       <c r="F30" s="18">
-        <v>31249</v>
+        <v>35112</v>
       </c>
       <c r="G30" s="18">
         <v>877803</v>
@@ -1416,7 +1416,7 @@
         <v>26</v>
       </c>
       <c r="F31" s="18">
-        <v>31249</v>
+        <v>35112</v>
       </c>
       <c r="G31" s="18">
         <v>877803</v>
@@ -1439,7 +1439,7 @@
         <v>27</v>
       </c>
       <c r="F32" s="18">
-        <v>31249</v>
+        <v>35112</v>
       </c>
       <c r="G32" s="18">
         <v>877803</v>
@@ -1462,7 +1462,7 @@
         <v>28</v>
       </c>
       <c r="F33" s="18">
-        <v>31249</v>
+        <v>35112</v>
       </c>
       <c r="G33" s="18">
         <v>877803</v>
@@ -1485,7 +1485,7 @@
         <v>29</v>
       </c>
       <c r="F34" s="18">
-        <v>31249</v>
+        <v>35112</v>
       </c>
       <c r="G34" s="18">
         <v>877803</v>
@@ -1508,7 +1508,7 @@
         <v>30</v>
       </c>
       <c r="F35" s="24">
-        <v>31249</v>
+        <v>32771</v>
       </c>
       <c r="G35" s="24">
         <v>877803</v>
